--- a/System_development/V_2/Magnet/Large Magnet Mapping.xlsx
+++ b/System_development/V_2/Magnet/Large Magnet Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/jsmartin_email_sc_edu/Documents/NMR Research/Magnet Stuff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailsc-my.sharepoint.com/personal/jsmartin_email_sc_edu/Documents/Compact-NMR/System_development/V_2/Magnet/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1309" documentId="11_F25DC773A252ABDACC10488989DE6FD05BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8280537D-C6C5-437A-AEDF-52692D5A63BB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="z=0" sheetId="1" r:id="rId1"/>
@@ -13340,12 +13340,12 @@
       <selection activeCell="M19" sqref="M19:P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>58.999999999999993</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13536,7 +13536,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <f>A2+2</f>
         <v>2</v>
@@ -13620,7 +13620,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A40" si="1">A3+2</f>
         <v>4</v>
@@ -13704,7 +13704,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -13788,7 +13788,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -13872,7 +13872,7 @@
         <v>0.122</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -13956,7 +13956,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -14040,7 +14040,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -14124,7 +14124,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -14208,7 +14208,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -14292,7 +14292,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -14376,7 +14376,7 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -14460,7 +14460,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -14544,7 +14544,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -14628,7 +14628,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -14712,7 +14712,7 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -14796,7 +14796,7 @@
         <v>0.36399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -14880,7 +14880,7 @@
         <v>0.372</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -14964,7 +14964,7 @@
         <v>0.377</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -15048,7 +15048,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -15132,7 +15132,7 @@
         <v>0.38400000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -15216,7 +15216,7 @@
         <v>0.38200000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -15300,7 +15300,7 @@
         <v>0.379</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -15384,7 +15384,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -15468,7 +15468,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -15552,7 +15552,7 @@
         <v>0.35799999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -15636,7 +15636,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -15720,7 +15720,7 @@
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -15804,7 +15804,7 @@
         <v>0.313</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -15888,7 +15888,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -15972,7 +15972,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -16056,7 +16056,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -16140,7 +16140,7 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -16224,7 +16224,7 @@
         <v>0.18099999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -16308,7 +16308,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -16392,7 +16392,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -16476,7 +16476,7 @@
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -16560,7 +16560,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -16644,7 +16644,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -16742,12 +16742,12 @@
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>-5</v>
       </c>
@@ -16815,7 +16815,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>-4</v>
       </c>
@@ -16845,7 +16845,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
@@ -16875,7 +16875,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>-2</v>
       </c>
@@ -16905,7 +16905,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>-1</v>
       </c>
@@ -16935,7 +16935,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -16965,7 +16965,7 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -16995,7 +16995,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -17025,7 +17025,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -17055,7 +17055,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -17085,7 +17085,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>5</v>
       </c>
@@ -17129,12 +17129,12 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>-5</v>
       </c>
@@ -17202,7 +17202,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>-4</v>
       </c>
@@ -17232,7 +17232,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>-3</v>
       </c>
@@ -17267,7 +17267,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>-2</v>
       </c>
@@ -17300,7 +17300,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>-1</v>
       </c>
@@ -17333,7 +17333,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -17366,7 +17366,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -17396,7 +17396,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>2</v>
       </c>
@@ -17426,7 +17426,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>3</v>
       </c>
@@ -17456,7 +17456,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>4</v>
       </c>
@@ -17486,7 +17486,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>5</v>
       </c>
